--- a/resources/templates/excepcion-chas.xlsx
+++ b/resources/templates/excepcion-chas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Modelo</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Familia</t>
+  </si>
+  <si>
+    <t>Fotos (IF)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -127,8 +132,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -138,7 +147,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -211,19 +222,19 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,41 +656,43 @@
     <col min="16" max="16" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="29" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="29" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1"/>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
